--- a/dashboards/dashboard_2026-02-18.xlsx
+++ b/dashboards/dashboard_2026-02-18.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D774"/>
+  <dimension ref="A1:D775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11293,6 +11293,20 @@
       </c>
       <c r="D774" t="n">
         <v>1213.400024414062</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B775" t="n">
+        <v>924.7000122070312</v>
+      </c>
+      <c r="C775" t="n">
+        <v>1408.199951171875</v>
+      </c>
+      <c r="D775" t="n">
+        <v>1218.900024414062</v>
       </c>
     </row>
   </sheetData>
@@ -11316,7 +11330,7 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -11352,10 +11366,10 @@
         <v>2042.75</v>
       </c>
       <c r="C2" t="n">
-        <v>4977</v>
+        <v>4980.39990234375</v>
       </c>
       <c r="D2" t="n">
-        <v>143.6421490637621</v>
+        <v>143.8085865790601</v>
       </c>
     </row>
   </sheetData>
@@ -11378,7 +11392,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11400,7 +11414,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32.9265592812342</v>
+        <v>32.92244572775225</v>
       </c>
     </row>
   </sheetData>
@@ -11414,7 +11428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B774"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16866,6 +16880,14 @@
         <v>15.07115619976593</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B775" t="n">
+        <v>15.3711569703975</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -16877,7 +16899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B774"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23083,6 +23105,14 @@
       </c>
       <c r="B774" t="n">
         <v>4977</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B775" t="n">
+        <v>4980.39990234375</v>
       </c>
     </row>
   </sheetData>
@@ -23127,7 +23157,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143.6421490637621</v>
+        <v>143.8085865790601</v>
       </c>
     </row>
   </sheetData>
@@ -23141,7 +23171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C774"/>
+  <dimension ref="A1:C775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31672,6 +31702,17 @@
       </c>
       <c r="C774" t="n">
         <v>325.4500122070312</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2323.5</v>
+      </c>
+      <c r="C775" t="n">
+        <v>332.4500122070312</v>
       </c>
     </row>
   </sheetData>
@@ -32197,10 +32238,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-2.557941473741043</v>
+        <v>-2.085967130214916</v>
       </c>
       <c r="C39" t="n">
-        <v>1.024373233918885</v>
+        <v>3.197274097685243</v>
       </c>
     </row>
   </sheetData>
@@ -32260,10 +32301,10 @@
         <v>2558.39990234375</v>
       </c>
       <c r="C2" t="n">
-        <v>2312.300048828125</v>
+        <v>2323.5</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.619287949869481</v>
+        <v>-9.181516233195531</v>
       </c>
     </row>
     <row r="3">
@@ -32276,10 +32317,10 @@
         <v>320.50634765625</v>
       </c>
       <c r="C3" t="n">
-        <v>325.4500122070312</v>
+        <v>332.4500122070312</v>
       </c>
       <c r="D3" t="n">
-        <v>1.542454490194189</v>
+        <v>3.726498597647465</v>
       </c>
     </row>
   </sheetData>
@@ -32302,7 +32343,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -32324,7 +32365,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.180872133977397</v>
+        <v>-3.02862143213839</v>
       </c>
     </row>
     <row r="3">
@@ -32334,7 +32375,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4904263870060044</v>
+        <v>1.17521697636962</v>
       </c>
     </row>
   </sheetData>
@@ -32348,7 +32389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C774"/>
+  <dimension ref="A1:C775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39367,6 +39408,17 @@
       </c>
       <c r="C774" t="n">
         <v>-23.81788321454671</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B775" t="n">
+        <v>0.3563330093942385</v>
+      </c>
+      <c r="C775" t="n">
+        <v>-20.5235424554752</v>
       </c>
     </row>
   </sheetData>
@@ -40006,13 +40058,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.3820272039783412</v>
+        <v>-0.4896408709140432</v>
       </c>
       <c r="C39" t="n">
-        <v>3.874538745387457</v>
+        <v>3.926195658440967</v>
       </c>
       <c r="D39" t="n">
-        <v>12.64912007722563</v>
+        <v>13.15972675924209</v>
       </c>
     </row>
   </sheetData>
@@ -40026,7 +40078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B774"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46232,6 +46284,14 @@
       </c>
       <c r="B774" t="n">
         <v>1318.875030517578</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B775" t="n">
+        <v>1327.975006103516</v>
       </c>
     </row>
   </sheetData>
@@ -46276,7 +46336,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.619287949869481</v>
+        <v>-9.181516233195531</v>
       </c>
     </row>
     <row r="3">
@@ -46286,7 +46346,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.542454490194189</v>
+        <v>3.726498597647465</v>
       </c>
     </row>
   </sheetData>
@@ -46346,10 +46406,10 @@
         <v>814.3499755859375</v>
       </c>
       <c r="C2" t="n">
-        <v>925.7000122070312</v>
+        <v>924.7000122070312</v>
       </c>
       <c r="D2" t="n">
-        <v>13.67348682499507</v>
+        <v>13.55068949829528</v>
       </c>
     </row>
     <row r="3">
@@ -46362,10 +46422,10 @@
         <v>902.4500122070312</v>
       </c>
       <c r="C3" t="n">
-        <v>1407.5</v>
+        <v>1408.199951171875</v>
       </c>
       <c r="D3" t="n">
-        <v>55.96431724321425</v>
+        <v>56.04187845573652</v>
       </c>
     </row>
     <row r="4">
@@ -46378,10 +46438,10 @@
         <v>612.2000122070312</v>
       </c>
       <c r="C4" t="n">
-        <v>1213.400024414062</v>
+        <v>1218.900024414062</v>
       </c>
       <c r="D4" t="n">
-        <v>98.20320160394247</v>
+        <v>99.10160080197123</v>
       </c>
     </row>
   </sheetData>
@@ -46426,7 +46486,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.181233055386824</v>
+        <v>4.141548645789772</v>
       </c>
     </row>
     <row r="3">
@@ -46436,7 +46496,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.26400588607786</v>
+        <v>15.26798067051582</v>
       </c>
     </row>
     <row r="4">
@@ -46446,7 +46506,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.44026849327861</v>
+        <v>24.59627560962223</v>
       </c>
     </row>
   </sheetData>
@@ -46460,7 +46520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D774"/>
+  <dimension ref="A1:D775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55050,6 +55110,20 @@
         <v>64.685130906247</v>
       </c>
     </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B775" t="n">
+        <v>8.698718577423858</v>
+      </c>
+      <c r="C775" t="n">
+        <v>12.40869696043705</v>
+      </c>
+      <c r="D775" t="n">
+        <v>66.7213876511457</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -55061,7 +55135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B774"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61267,6 +61341,14 @@
       </c>
       <c r="B774" t="n">
         <v>1182.200012207031</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B775" t="n">
+        <v>1183.933329264323</v>
       </c>
     </row>
   </sheetData>
@@ -61311,7 +61393,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.67348682499507</v>
+        <v>13.55068949829528</v>
       </c>
     </row>
     <row r="3">
@@ -61321,7 +61403,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.96431724321425</v>
+        <v>56.04187845573652</v>
       </c>
     </row>
     <row r="4">
@@ -61331,7 +61413,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.20320160394247</v>
+        <v>99.10160080197123</v>
       </c>
     </row>
   </sheetData>
@@ -61345,7 +61427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B774"/>
+  <dimension ref="A1:B775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67551,6 +67633,14 @@
       </c>
       <c r="B774" t="n">
         <v>4977</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B775" t="n">
+        <v>4980.39990234375</v>
       </c>
     </row>
   </sheetData>
@@ -67962,7 +68052,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.278037637332748</v>
+        <v>8.352004837240301</v>
       </c>
     </row>
   </sheetData>
